--- a/public/Spreadsheets/customerOverview.xlsx
+++ b/public/Spreadsheets/customerOverview.xlsx
@@ -15,7 +15,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="118">
+  <si>
+    <t>Customer ID</t>
+  </si>
   <si>
     <t>Customers</t>
   </si>
@@ -23,7 +26,7 @@
     <t>Yearly revenue</t>
   </si>
   <si>
-    <t>Bought Kwh</t>
+    <t>Bought Kwh --&gt;</t>
   </si>
   <si>
     <t>06-2022</t>
@@ -65,61 +68,307 @@
     <t>mick de muis</t>
   </si>
   <si>
-    <t>2022-06-01</t>
-  </si>
-  <si>
-    <t>2022-07-01</t>
-  </si>
-  <si>
-    <t>2022-08-01</t>
-  </si>
-  <si>
-    <t>2022-09-01</t>
-  </si>
-  <si>
-    <t>2022-11-01</t>
-  </si>
-  <si>
-    <t>2023-01-01</t>
-  </si>
-  <si>
-    <t>2023-02-01</t>
-  </si>
-  <si>
-    <t>2023-03-01</t>
-  </si>
-  <si>
-    <t>2023-04-01</t>
-  </si>
-  <si>
-    <t>2023-05-01</t>
+    <t>€ 1820.54</t>
+  </si>
+  <si>
+    <t>136.37 Kwh</t>
+  </si>
+  <si>
+    <t>99.59 Kwh</t>
+  </si>
+  <si>
+    <t>149.11 Kwh</t>
+  </si>
+  <si>
+    <t>16.9 Kwh</t>
+  </si>
+  <si>
+    <t>59.67 Kwh</t>
+  </si>
+  <si>
+    <t>125.1 Kwh</t>
+  </si>
+  <si>
+    <t>337.5 Kwh</t>
+  </si>
+  <si>
+    <t>18.56 Kwh</t>
+  </si>
+  <si>
+    <t>69.57 Kwh</t>
+  </si>
+  <si>
+    <t>252.57 Kwh</t>
   </si>
   <si>
     <t>René Krewinkel</t>
   </si>
   <si>
-    <t>2022-10-01</t>
-  </si>
-  <si>
-    <t>2022-12-01</t>
+    <t>€ 1330.67</t>
+  </si>
+  <si>
+    <t>79.34 Kwh</t>
+  </si>
+  <si>
+    <t>171.18 Kwh</t>
+  </si>
+  <si>
+    <t>148.43 Kwh</t>
+  </si>
+  <si>
+    <t>146.43 Kwh</t>
+  </si>
+  <si>
+    <t>146.06 Kwh</t>
+  </si>
+  <si>
+    <t>39.82 Kwh</t>
+  </si>
+  <si>
+    <t>39.42 Kwh</t>
+  </si>
+  <si>
+    <t>36.8 Kwh</t>
+  </si>
+  <si>
+    <t>140.33 Kwh</t>
+  </si>
+  <si>
+    <t>88.54 Kwh</t>
+  </si>
+  <si>
+    <t>186.34 Kwh</t>
+  </si>
+  <si>
+    <t>216.49 Kwh</t>
   </si>
   <si>
     <t>bas man</t>
   </si>
   <si>
+    <t>€ 1981.22</t>
+  </si>
+  <si>
+    <t>49.8 Kwh</t>
+  </si>
+  <si>
+    <t>138.99 Kwh</t>
+  </si>
+  <si>
+    <t>187.72 Kwh</t>
+  </si>
+  <si>
+    <t>191.83 Kwh</t>
+  </si>
+  <si>
+    <t>80.06 Kwh</t>
+  </si>
+  <si>
+    <t>150.44 Kwh</t>
+  </si>
+  <si>
+    <t>36.49 Kwh</t>
+  </si>
+  <si>
+    <t>131.43 Kwh</t>
+  </si>
+  <si>
+    <t>104.42 Kwh</t>
+  </si>
+  <si>
+    <t>39.87 Kwh</t>
+  </si>
+  <si>
+    <t>239.9 Kwh</t>
+  </si>
+  <si>
+    <t>96.38 Kwh</t>
+  </si>
+  <si>
     <t>Papageno Smithe</t>
   </si>
   <si>
+    <t>€ 1192</t>
+  </si>
+  <si>
+    <t>98.93 Kwh</t>
+  </si>
+  <si>
+    <t>91.13 Kwh</t>
+  </si>
+  <si>
+    <t>219.22 Kwh</t>
+  </si>
+  <si>
+    <t>66.62 Kwh</t>
+  </si>
+  <si>
+    <t>55.62 Kwh</t>
+  </si>
+  <si>
+    <t>20.55 Kwh</t>
+  </si>
+  <si>
+    <t>58.35 Kwh</t>
+  </si>
+  <si>
+    <t>95.01 Kwh</t>
+  </si>
+  <si>
+    <t>212.64 Kwh</t>
+  </si>
+  <si>
+    <t>297.33 Kwh</t>
+  </si>
+  <si>
+    <t>140.18 Kwh</t>
+  </si>
+  <si>
     <t>Aldwin Cheavin</t>
   </si>
   <si>
+    <t>€ 1336.98</t>
+  </si>
+  <si>
+    <t>46.38 Kwh</t>
+  </si>
+  <si>
+    <t>87.16 Kwh</t>
+  </si>
+  <si>
+    <t>148.35 Kwh</t>
+  </si>
+  <si>
+    <t>152.45 Kwh</t>
+  </si>
+  <si>
+    <t>260.31 Kwh</t>
+  </si>
+  <si>
+    <t>277.32 Kwh</t>
+  </si>
+  <si>
+    <t>65.7 Kwh</t>
+  </si>
+  <si>
+    <t>41.31 Kwh</t>
+  </si>
+  <si>
+    <t>182.96 Kwh</t>
+  </si>
+  <si>
+    <t>74.45 Kwh</t>
+  </si>
+  <si>
+    <t>74.71 Kwh</t>
+  </si>
+  <si>
     <t>Amerigo Bridat</t>
   </si>
   <si>
+    <t>€ 1413.27</t>
+  </si>
+  <si>
+    <t>66.32 Kwh</t>
+  </si>
+  <si>
+    <t>21.99 Kwh</t>
+  </si>
+  <si>
+    <t>159.25 Kwh</t>
+  </si>
+  <si>
+    <t>106.73 Kwh</t>
+  </si>
+  <si>
+    <t>14.63 Kwh</t>
+  </si>
+  <si>
+    <t>236.1 Kwh</t>
+  </si>
+  <si>
+    <t>276.16 Kwh</t>
+  </si>
+  <si>
+    <t>206.31 Kwh</t>
+  </si>
+  <si>
+    <t>103.65 Kwh</t>
+  </si>
+  <si>
+    <t>209.56 Kwh</t>
+  </si>
+  <si>
     <t>Melissa Ciciotti</t>
   </si>
   <si>
+    <t>€ 2186.98</t>
+  </si>
+  <si>
+    <t>80.83 Kwh</t>
+  </si>
+  <si>
+    <t>219.66 Kwh</t>
+  </si>
+  <si>
+    <t>160.26 Kwh</t>
+  </si>
+  <si>
+    <t>55.22 Kwh</t>
+  </si>
+  <si>
+    <t>74.42 Kwh</t>
+  </si>
+  <si>
+    <t>240.62 Kwh</t>
+  </si>
+  <si>
+    <t>224.02 Kwh</t>
+  </si>
+  <si>
+    <t>245.23 Kwh</t>
+  </si>
+  <si>
+    <t>194.08 Kwh</t>
+  </si>
+  <si>
+    <t>51.99 Kwh</t>
+  </si>
+  <si>
     <t>Torrey Rawlison</t>
+  </si>
+  <si>
+    <t>€ 1524.3</t>
+  </si>
+  <si>
+    <t>155.53 Kwh</t>
+  </si>
+  <si>
+    <t>179.94 Kwh</t>
+  </si>
+  <si>
+    <t>187.05 Kwh</t>
+  </si>
+  <si>
+    <t>214.8 Kwh</t>
+  </si>
+  <si>
+    <t>71.46 Kwh</t>
+  </si>
+  <si>
+    <t>97.26 Kwh</t>
+  </si>
+  <si>
+    <t>103.07 Kwh</t>
+  </si>
+  <si>
+    <t>50.49 Kwh</t>
+  </si>
+  <si>
+    <t>55.13 Kwh</t>
+  </si>
+  <si>
+    <t>250.77 Kwh</t>
   </si>
 </sst>
 </file>
@@ -469,18 +718,18 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:O9"/>
+  <dimension ref="A1:P9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="O1" sqref="O1"/>
+      <selection activeCell="P1" sqref="P1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="19.995" bestFit="true" customWidth="true" style="0"/>
-    <col min="2" max="2" width="17.567" bestFit="true" customWidth="true" style="0"/>
-    <col min="3" max="3" width="12.854" bestFit="true" customWidth="true" style="0"/>
-    <col min="4" max="4" width="12.854" bestFit="true" customWidth="true" style="0"/>
+    <col min="1" max="1" width="13.997" bestFit="true" customWidth="true" style="0"/>
+    <col min="2" max="2" width="19.995" bestFit="true" customWidth="true" style="0"/>
+    <col min="3" max="3" width="17.567" bestFit="true" customWidth="true" style="0"/>
+    <col min="4" max="4" width="17.567" bestFit="true" customWidth="true" style="0"/>
     <col min="5" max="5" width="12.854" bestFit="true" customWidth="true" style="0"/>
     <col min="6" max="6" width="12.854" bestFit="true" customWidth="true" style="0"/>
     <col min="7" max="7" width="12.854" bestFit="true" customWidth="true" style="0"/>
@@ -492,9 +741,10 @@
     <col min="13" max="13" width="12.854" bestFit="true" customWidth="true" style="0"/>
     <col min="14" max="14" width="12.854" bestFit="true" customWidth="true" style="0"/>
     <col min="15" max="15" width="12.854" bestFit="true" customWidth="true" style="0"/>
+    <col min="16" max="16" width="12.854" bestFit="true" customWidth="true" style="0"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:16">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -540,327 +790,354 @@
       <c r="O1" s="1" t="s">
         <v>14</v>
       </c>
+      <c r="P1" s="1" t="s">
+        <v>15</v>
+      </c>
     </row>
-    <row r="2" spans="1:15">
-      <c r="A2" t="s">
+    <row r="2" spans="1:16">
+      <c r="A2">
+        <v>10</v>
+      </c>
+      <c r="B2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G2" t="s">
+        <v>20</v>
+      </c>
+      <c r="H2" t="s">
+        <v>21</v>
+      </c>
+      <c r="I2" t="s">
+        <v>22</v>
+      </c>
+      <c r="J2" t="s">
+        <v>23</v>
+      </c>
+      <c r="K2" t="s">
+        <v>24</v>
+      </c>
+      <c r="L2" t="s">
+        <v>25</v>
+      </c>
+      <c r="M2" t="s">
+        <v>26</v>
+      </c>
+      <c r="N2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16">
+      <c r="A3">
+        <v>11</v>
+      </c>
+      <c r="B3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E3" t="s">
+        <v>30</v>
+      </c>
+      <c r="F3" t="s">
+        <v>31</v>
+      </c>
+      <c r="G3" t="s">
+        <v>32</v>
+      </c>
+      <c r="H3" t="s">
+        <v>33</v>
+      </c>
+      <c r="I3" t="s">
+        <v>34</v>
+      </c>
+      <c r="J3" t="s">
+        <v>35</v>
+      </c>
+      <c r="K3" t="s">
+        <v>36</v>
+      </c>
+      <c r="L3" t="s">
+        <v>37</v>
+      </c>
+      <c r="M3" t="s">
+        <v>38</v>
+      </c>
+      <c r="N3" t="s">
+        <v>39</v>
+      </c>
+      <c r="O3" t="s">
+        <v>40</v>
+      </c>
+      <c r="P3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16">
+      <c r="A4">
+        <v>12</v>
+      </c>
+      <c r="B4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C4" t="s">
+        <v>43</v>
+      </c>
+      <c r="E4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F4" t="s">
+        <v>45</v>
+      </c>
+      <c r="G4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H4" t="s">
+        <v>47</v>
+      </c>
+      <c r="I4" t="s">
+        <v>48</v>
+      </c>
+      <c r="J4" t="s">
+        <v>49</v>
+      </c>
+      <c r="K4" t="s">
+        <v>50</v>
+      </c>
+      <c r="L4" t="s">
+        <v>51</v>
+      </c>
+      <c r="M4" t="s">
+        <v>52</v>
+      </c>
+      <c r="N4" t="s">
+        <v>53</v>
+      </c>
+      <c r="O4" t="s">
+        <v>54</v>
+      </c>
+      <c r="P4" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16">
+      <c r="A5">
+        <v>13</v>
+      </c>
+      <c r="B5" t="s">
+        <v>56</v>
+      </c>
+      <c r="C5" t="s">
+        <v>57</v>
+      </c>
+      <c r="E5" t="s">
+        <v>58</v>
+      </c>
+      <c r="F5" t="s">
+        <v>59</v>
+      </c>
+      <c r="G5" t="s">
+        <v>60</v>
+      </c>
+      <c r="H5" t="s">
+        <v>61</v>
+      </c>
+      <c r="I5" t="s">
+        <v>62</v>
+      </c>
+      <c r="J5" t="s">
+        <v>63</v>
+      </c>
+      <c r="K5" t="s">
+        <v>64</v>
+      </c>
+      <c r="L5" t="s">
+        <v>65</v>
+      </c>
+      <c r="M5" t="s">
+        <v>66</v>
+      </c>
+      <c r="N5" t="s">
+        <v>67</v>
+      </c>
+      <c r="O5" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16">
+      <c r="A6">
+        <v>14</v>
+      </c>
+      <c r="B6" t="s">
+        <v>69</v>
+      </c>
+      <c r="C6" t="s">
+        <v>70</v>
+      </c>
+      <c r="E6" t="s">
+        <v>71</v>
+      </c>
+      <c r="F6" t="s">
+        <v>72</v>
+      </c>
+      <c r="G6" t="s">
+        <v>73</v>
+      </c>
+      <c r="H6" t="s">
+        <v>74</v>
+      </c>
+      <c r="I6" t="s">
+        <v>75</v>
+      </c>
+      <c r="J6" t="s">
+        <v>76</v>
+      </c>
+      <c r="K6" t="s">
+        <v>77</v>
+      </c>
+      <c r="L6" t="s">
+        <v>78</v>
+      </c>
+      <c r="M6" t="s">
+        <v>79</v>
+      </c>
+      <c r="N6" t="s">
+        <v>80</v>
+      </c>
+      <c r="O6" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16">
+      <c r="A7">
         <v>15</v>
       </c>
-      <c r="B2">
-        <v>2762.44</v>
-      </c>
-      <c r="D2" t="s">
+      <c r="B7" t="s">
+        <v>82</v>
+      </c>
+      <c r="C7" t="s">
+        <v>83</v>
+      </c>
+      <c r="E7" t="s">
+        <v>84</v>
+      </c>
+      <c r="F7" t="s">
+        <v>85</v>
+      </c>
+      <c r="G7" t="s">
+        <v>86</v>
+      </c>
+      <c r="H7" t="s">
+        <v>87</v>
+      </c>
+      <c r="I7" t="s">
+        <v>88</v>
+      </c>
+      <c r="J7" t="s">
+        <v>89</v>
+      </c>
+      <c r="K7" t="s">
+        <v>90</v>
+      </c>
+      <c r="L7" t="s">
+        <v>91</v>
+      </c>
+      <c r="M7" t="s">
+        <v>92</v>
+      </c>
+      <c r="N7" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16">
+      <c r="A8">
         <v>16</v>
       </c>
-      <c r="E2" t="s">
+      <c r="B8" t="s">
+        <v>94</v>
+      </c>
+      <c r="C8" t="s">
+        <v>95</v>
+      </c>
+      <c r="E8" t="s">
+        <v>96</v>
+      </c>
+      <c r="F8" t="s">
+        <v>97</v>
+      </c>
+      <c r="G8" t="s">
+        <v>98</v>
+      </c>
+      <c r="H8" t="s">
+        <v>99</v>
+      </c>
+      <c r="I8" t="s">
+        <v>100</v>
+      </c>
+      <c r="J8" t="s">
+        <v>101</v>
+      </c>
+      <c r="K8" t="s">
+        <v>102</v>
+      </c>
+      <c r="L8" t="s">
+        <v>103</v>
+      </c>
+      <c r="M8" t="s">
+        <v>104</v>
+      </c>
+      <c r="N8" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16">
+      <c r="A9">
         <v>17</v>
       </c>
-      <c r="F2" t="s">
-        <v>18</v>
-      </c>
-      <c r="G2" t="s">
-        <v>19</v>
-      </c>
-      <c r="H2" t="s">
-        <v>20</v>
-      </c>
-      <c r="I2" t="s">
-        <v>21</v>
-      </c>
-      <c r="J2" t="s">
-        <v>22</v>
-      </c>
-      <c r="K2" t="s">
-        <v>23</v>
-      </c>
-      <c r="L2" t="s">
-        <v>24</v>
-      </c>
-      <c r="M2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
-      <c r="A3" t="s">
-        <v>26</v>
-      </c>
-      <c r="B3">
-        <v>2617.68</v>
-      </c>
-      <c r="D3" t="s">
-        <v>16</v>
-      </c>
-      <c r="E3" t="s">
-        <v>17</v>
-      </c>
-      <c r="F3" t="s">
-        <v>18</v>
-      </c>
-      <c r="G3" t="s">
-        <v>19</v>
-      </c>
-      <c r="H3" t="s">
-        <v>27</v>
-      </c>
-      <c r="I3" t="s">
-        <v>20</v>
-      </c>
-      <c r="J3" t="s">
-        <v>28</v>
-      </c>
-      <c r="K3" t="s">
-        <v>21</v>
-      </c>
-      <c r="L3" t="s">
-        <v>22</v>
-      </c>
-      <c r="M3" t="s">
-        <v>23</v>
-      </c>
-      <c r="N3" t="s">
-        <v>24</v>
-      </c>
-      <c r="O3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
-      <c r="A4" t="s">
-        <v>29</v>
-      </c>
-      <c r="B4">
-        <v>2874.94</v>
-      </c>
-      <c r="D4" t="s">
-        <v>16</v>
-      </c>
-      <c r="E4" t="s">
-        <v>17</v>
-      </c>
-      <c r="F4" t="s">
-        <v>18</v>
-      </c>
-      <c r="G4" t="s">
-        <v>19</v>
-      </c>
-      <c r="H4" t="s">
-        <v>27</v>
-      </c>
-      <c r="I4" t="s">
-        <v>20</v>
-      </c>
-      <c r="J4" t="s">
-        <v>28</v>
-      </c>
-      <c r="K4" t="s">
-        <v>21</v>
-      </c>
-      <c r="L4" t="s">
-        <v>22</v>
-      </c>
-      <c r="M4" t="s">
-        <v>23</v>
-      </c>
-      <c r="N4" t="s">
-        <v>24</v>
-      </c>
-      <c r="O4" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
-      <c r="A5" t="s">
-        <v>30</v>
-      </c>
-      <c r="B5">
-        <v>2755.96</v>
-      </c>
-      <c r="D5" t="s">
-        <v>16</v>
-      </c>
-      <c r="E5" t="s">
-        <v>17</v>
-      </c>
-      <c r="F5" t="s">
-        <v>18</v>
-      </c>
-      <c r="G5" t="s">
-        <v>27</v>
-      </c>
-      <c r="H5" t="s">
-        <v>20</v>
-      </c>
-      <c r="I5" t="s">
-        <v>28</v>
-      </c>
-      <c r="J5" t="s">
-        <v>21</v>
-      </c>
-      <c r="K5" t="s">
-        <v>22</v>
-      </c>
-      <c r="L5" t="s">
-        <v>23</v>
-      </c>
-      <c r="M5" t="s">
-        <v>24</v>
-      </c>
-      <c r="N5" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15">
-      <c r="A6" t="s">
-        <v>31</v>
-      </c>
-      <c r="B6">
-        <v>2612.8</v>
-      </c>
-      <c r="D6" t="s">
-        <v>16</v>
-      </c>
-      <c r="E6" t="s">
-        <v>17</v>
-      </c>
-      <c r="F6" t="s">
-        <v>18</v>
-      </c>
-      <c r="G6" t="s">
-        <v>27</v>
-      </c>
-      <c r="H6" t="s">
-        <v>20</v>
-      </c>
-      <c r="I6" t="s">
-        <v>28</v>
-      </c>
-      <c r="J6" t="s">
-        <v>21</v>
-      </c>
-      <c r="K6" t="s">
-        <v>22</v>
-      </c>
-      <c r="L6" t="s">
-        <v>23</v>
-      </c>
-      <c r="M6" t="s">
-        <v>24</v>
-      </c>
-      <c r="N6" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15">
-      <c r="A7" t="s">
-        <v>32</v>
-      </c>
-      <c r="B7">
-        <v>2673.95</v>
-      </c>
-      <c r="D7" t="s">
-        <v>17</v>
-      </c>
-      <c r="E7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F7" t="s">
-        <v>27</v>
-      </c>
-      <c r="G7" t="s">
-        <v>20</v>
-      </c>
-      <c r="H7" t="s">
-        <v>28</v>
-      </c>
-      <c r="I7" t="s">
-        <v>21</v>
-      </c>
-      <c r="J7" t="s">
-        <v>22</v>
-      </c>
-      <c r="K7" t="s">
-        <v>23</v>
-      </c>
-      <c r="L7" t="s">
-        <v>24</v>
-      </c>
-      <c r="M7" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
-      <c r="A8" t="s">
-        <v>33</v>
-      </c>
-      <c r="B8">
-        <v>2825.9</v>
-      </c>
-      <c r="D8" t="s">
-        <v>16</v>
-      </c>
-      <c r="E8" t="s">
-        <v>17</v>
-      </c>
-      <c r="F8" t="s">
-        <v>19</v>
-      </c>
-      <c r="G8" t="s">
-        <v>27</v>
-      </c>
-      <c r="H8" t="s">
-        <v>20</v>
-      </c>
-      <c r="I8" t="s">
-        <v>28</v>
-      </c>
-      <c r="J8" t="s">
-        <v>22</v>
-      </c>
-      <c r="K8" t="s">
-        <v>23</v>
-      </c>
-      <c r="L8" t="s">
-        <v>24</v>
-      </c>
-      <c r="M8" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15">
-      <c r="A9" t="s">
-        <v>34</v>
-      </c>
-      <c r="B9">
-        <v>2592.81</v>
-      </c>
-      <c r="D9" t="s">
-        <v>16</v>
+      <c r="B9" t="s">
+        <v>106</v>
+      </c>
+      <c r="C9" t="s">
+        <v>107</v>
       </c>
       <c r="E9" t="s">
-        <v>17</v>
+        <v>108</v>
       </c>
       <c r="F9" t="s">
-        <v>18</v>
+        <v>109</v>
       </c>
       <c r="G9" t="s">
-        <v>27</v>
+        <v>110</v>
       </c>
       <c r="H9" t="s">
-        <v>28</v>
+        <v>111</v>
       </c>
       <c r="I9" t="s">
-        <v>21</v>
+        <v>112</v>
       </c>
       <c r="J9" t="s">
-        <v>22</v>
+        <v>113</v>
       </c>
       <c r="K9" t="s">
-        <v>23</v>
+        <v>114</v>
       </c>
       <c r="L9" t="s">
-        <v>24</v>
+        <v>115</v>
       </c>
       <c r="M9" t="s">
-        <v>25</v>
+        <v>116</v>
+      </c>
+      <c r="N9" t="s">
+        <v>117</v>
       </c>
     </row>
   </sheetData>

--- a/public/Spreadsheets/customerOverview.xlsx
+++ b/public/Spreadsheets/customerOverview.xlsx
@@ -29,40 +29,40 @@
     <t>Bought Kwh --&gt;</t>
   </si>
   <si>
-    <t>06-2022</t>
-  </si>
-  <si>
-    <t>07-2022</t>
-  </si>
-  <si>
-    <t>08-2022</t>
-  </si>
-  <si>
-    <t>09-2022</t>
-  </si>
-  <si>
-    <t>10-2022</t>
-  </si>
-  <si>
-    <t>11-2022</t>
-  </si>
-  <si>
-    <t>12-2022</t>
-  </si>
-  <si>
-    <t>01-2023</t>
-  </si>
-  <si>
-    <t>02-2023</t>
-  </si>
-  <si>
-    <t>03-2023</t>
-  </si>
-  <si>
-    <t>04-2023</t>
-  </si>
-  <si>
-    <t>05-2023</t>
+    <t>06-2022 - 07-2022</t>
+  </si>
+  <si>
+    <t>07-2022 - 08-2022</t>
+  </si>
+  <si>
+    <t>08-2022 - 09-2022</t>
+  </si>
+  <si>
+    <t>09-2022 - 10-2022</t>
+  </si>
+  <si>
+    <t>10-2022 - 11-2022</t>
+  </si>
+  <si>
+    <t>11-2022 - 12-2022</t>
+  </si>
+  <si>
+    <t>12-2022 - 01-2023</t>
+  </si>
+  <si>
+    <t>01-2023 - 02-2023</t>
+  </si>
+  <si>
+    <t>02-2023 - 03-2023</t>
+  </si>
+  <si>
+    <t>03-2023 - 04-2023</t>
+  </si>
+  <si>
+    <t>04-2023 - 05-2023</t>
+  </si>
+  <si>
+    <t>05-2023 - 06-2023</t>
   </si>
   <si>
     <t>mick de muis</t>
@@ -730,18 +730,18 @@
     <col min="2" max="2" width="19.995" bestFit="true" customWidth="true" style="0"/>
     <col min="3" max="3" width="17.567" bestFit="true" customWidth="true" style="0"/>
     <col min="4" max="4" width="17.567" bestFit="true" customWidth="true" style="0"/>
-    <col min="5" max="5" width="12.854" bestFit="true" customWidth="true" style="0"/>
-    <col min="6" max="6" width="12.854" bestFit="true" customWidth="true" style="0"/>
-    <col min="7" max="7" width="12.854" bestFit="true" customWidth="true" style="0"/>
-    <col min="8" max="8" width="12.854" bestFit="true" customWidth="true" style="0"/>
-    <col min="9" max="9" width="12.854" bestFit="true" customWidth="true" style="0"/>
-    <col min="10" max="10" width="12.854" bestFit="true" customWidth="true" style="0"/>
-    <col min="11" max="11" width="12.854" bestFit="true" customWidth="true" style="0"/>
-    <col min="12" max="12" width="12.854" bestFit="true" customWidth="true" style="0"/>
-    <col min="13" max="13" width="12.854" bestFit="true" customWidth="true" style="0"/>
-    <col min="14" max="14" width="12.854" bestFit="true" customWidth="true" style="0"/>
-    <col min="15" max="15" width="12.854" bestFit="true" customWidth="true" style="0"/>
-    <col min="16" max="16" width="12.854" bestFit="true" customWidth="true" style="0"/>
+    <col min="5" max="5" width="21.138" bestFit="true" customWidth="true" style="0"/>
+    <col min="6" max="6" width="21.138" bestFit="true" customWidth="true" style="0"/>
+    <col min="7" max="7" width="21.138" bestFit="true" customWidth="true" style="0"/>
+    <col min="8" max="8" width="21.138" bestFit="true" customWidth="true" style="0"/>
+    <col min="9" max="9" width="21.138" bestFit="true" customWidth="true" style="0"/>
+    <col min="10" max="10" width="21.138" bestFit="true" customWidth="true" style="0"/>
+    <col min="11" max="11" width="21.138" bestFit="true" customWidth="true" style="0"/>
+    <col min="12" max="12" width="21.138" bestFit="true" customWidth="true" style="0"/>
+    <col min="13" max="13" width="21.138" bestFit="true" customWidth="true" style="0"/>
+    <col min="14" max="14" width="21.138" bestFit="true" customWidth="true" style="0"/>
+    <col min="15" max="15" width="21.138" bestFit="true" customWidth="true" style="0"/>
+    <col min="16" max="16" width="21.138" bestFit="true" customWidth="true" style="0"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16">

--- a/public/Spreadsheets/customerOverview.xlsx
+++ b/public/Spreadsheets/customerOverview.xlsx
@@ -146,7 +146,7 @@
     <t>bas man</t>
   </si>
   <si>
-    <t>€ 1981.22</t>
+    <t>€ 1700.19</t>
   </si>
   <si>
     <t>49.8 Kwh</t>
@@ -188,7 +188,7 @@
     <t>Papageno Smithe</t>
   </si>
   <si>
-    <t>€ 1192</t>
+    <t>€ 1649.48</t>
   </si>
   <si>
     <t>98.93 Kwh</t>
@@ -227,7 +227,7 @@
     <t>Aldwin Cheavin</t>
   </si>
   <si>
-    <t>€ 1336.98</t>
+    <t>€ 1342.54</t>
   </si>
   <si>
     <t>46.38 Kwh</t>
@@ -266,7 +266,7 @@
     <t>Amerigo Bridat</t>
   </si>
   <si>
-    <t>€ 1413.27</t>
+    <t>€ 1460.25</t>
   </si>
   <si>
     <t>66.32 Kwh</t>
@@ -302,7 +302,7 @@
     <t>Melissa Ciciotti</t>
   </si>
   <si>
-    <t>€ 2186.98</t>
+    <t>€ 1448.54</t>
   </si>
   <si>
     <t>80.83 Kwh</t>
@@ -338,7 +338,7 @@
     <t>Torrey Rawlison</t>
   </si>
   <si>
-    <t>€ 1524.3</t>
+    <t>€ 1423.82</t>
   </si>
   <si>
     <t>155.53 Kwh</t>
@@ -816,22 +816,22 @@
       <c r="H2" t="s">
         <v>21</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>22</v>
       </c>
-      <c r="J2" t="s">
+      <c r="L2" t="s">
         <v>23</v>
       </c>
-      <c r="K2" t="s">
+      <c r="M2" t="s">
         <v>24</v>
       </c>
-      <c r="L2" t="s">
+      <c r="N2" t="s">
         <v>25</v>
       </c>
-      <c r="M2" t="s">
+      <c r="O2" t="s">
         <v>26</v>
       </c>
-      <c r="N2" t="s">
+      <c r="P2" t="s">
         <v>27</v>
       </c>
     </row>
@@ -948,28 +948,28 @@
       <c r="G5" t="s">
         <v>60</v>
       </c>
-      <c r="H5" t="s">
+      <c r="I5" t="s">
         <v>61</v>
       </c>
-      <c r="I5" t="s">
+      <c r="J5" t="s">
         <v>62</v>
       </c>
-      <c r="J5" t="s">
+      <c r="K5" t="s">
         <v>63</v>
       </c>
-      <c r="K5" t="s">
+      <c r="L5" t="s">
         <v>64</v>
       </c>
-      <c r="L5" t="s">
+      <c r="M5" t="s">
         <v>65</v>
       </c>
-      <c r="M5" t="s">
+      <c r="N5" t="s">
         <v>66</v>
       </c>
-      <c r="N5" t="s">
+      <c r="O5" t="s">
         <v>67</v>
       </c>
-      <c r="O5" t="s">
+      <c r="P5" t="s">
         <v>68</v>
       </c>
     </row>
@@ -992,28 +992,28 @@
       <c r="G6" t="s">
         <v>73</v>
       </c>
-      <c r="H6" t="s">
+      <c r="I6" t="s">
         <v>74</v>
       </c>
-      <c r="I6" t="s">
+      <c r="J6" t="s">
         <v>75</v>
       </c>
-      <c r="J6" t="s">
+      <c r="K6" t="s">
         <v>76</v>
       </c>
-      <c r="K6" t="s">
+      <c r="L6" t="s">
         <v>77</v>
       </c>
-      <c r="L6" t="s">
+      <c r="M6" t="s">
         <v>78</v>
       </c>
-      <c r="M6" t="s">
+      <c r="N6" t="s">
         <v>79</v>
       </c>
-      <c r="N6" t="s">
+      <c r="O6" t="s">
         <v>80</v>
       </c>
-      <c r="O6" t="s">
+      <c r="P6" t="s">
         <v>81</v>
       </c>
     </row>
@@ -1027,34 +1027,34 @@
       <c r="C7" t="s">
         <v>83</v>
       </c>
-      <c r="E7" t="s">
+      <c r="F7" t="s">
         <v>84</v>
       </c>
-      <c r="F7" t="s">
+      <c r="H7" t="s">
         <v>85</v>
       </c>
-      <c r="G7" t="s">
+      <c r="I7" t="s">
         <v>86</v>
       </c>
-      <c r="H7" t="s">
+      <c r="J7" t="s">
         <v>87</v>
       </c>
-      <c r="I7" t="s">
+      <c r="K7" t="s">
         <v>88</v>
       </c>
-      <c r="J7" t="s">
+      <c r="L7" t="s">
         <v>89</v>
       </c>
-      <c r="K7" t="s">
+      <c r="M7" t="s">
         <v>90</v>
       </c>
-      <c r="L7" t="s">
+      <c r="N7" t="s">
         <v>91</v>
       </c>
-      <c r="M7" t="s">
+      <c r="O7" t="s">
         <v>92</v>
       </c>
-      <c r="N7" t="s">
+      <c r="P7" t="s">
         <v>93</v>
       </c>
     </row>
@@ -1074,28 +1074,28 @@
       <c r="F8" t="s">
         <v>97</v>
       </c>
-      <c r="G8" t="s">
+      <c r="H8" t="s">
         <v>98</v>
       </c>
-      <c r="H8" t="s">
+      <c r="I8" t="s">
         <v>99</v>
       </c>
-      <c r="I8" t="s">
+      <c r="J8" t="s">
         <v>100</v>
       </c>
-      <c r="J8" t="s">
+      <c r="K8" t="s">
         <v>101</v>
       </c>
-      <c r="K8" t="s">
+      <c r="M8" t="s">
         <v>102</v>
       </c>
-      <c r="L8" t="s">
+      <c r="N8" t="s">
         <v>103</v>
       </c>
-      <c r="M8" t="s">
+      <c r="O8" t="s">
         <v>104</v>
       </c>
-      <c r="N8" t="s">
+      <c r="P8" t="s">
         <v>105</v>
       </c>
     </row>
@@ -1118,25 +1118,25 @@
       <c r="G9" t="s">
         <v>110</v>
       </c>
-      <c r="H9" t="s">
+      <c r="I9" t="s">
         <v>111</v>
       </c>
-      <c r="I9" t="s">
+      <c r="K9" t="s">
         <v>112</v>
       </c>
-      <c r="J9" t="s">
+      <c r="L9" t="s">
         <v>113</v>
       </c>
-      <c r="K9" t="s">
+      <c r="M9" t="s">
         <v>114</v>
       </c>
-      <c r="L9" t="s">
+      <c r="N9" t="s">
         <v>115</v>
       </c>
-      <c r="M9" t="s">
+      <c r="O9" t="s">
         <v>116</v>
       </c>
-      <c r="N9" t="s">
+      <c r="P9" t="s">
         <v>117</v>
       </c>
     </row>
